--- a/medicine/Enfance/Prix_Sésame/Prix_Sésame.xlsx
+++ b/medicine/Enfance/Prix_Sésame/Prix_Sésame.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_S%C3%A9same</t>
+          <t>Prix_Sésame</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Prix Sésame est un prix français de littérature jeunesse contemporaine décerné par des lecteurs de quatrième.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_S%C3%A9same</t>
+          <t>Prix_Sésame</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix a été lancé en 1998 par l’association du Sou des Écoles Laïques[1].
-Pour la 30e édition, l'invité d'honneur est Claude Ponti[2].
-La thématique de la 32e édition est « Hors-piste »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix a été lancé en 1998 par l’association du Sou des Écoles Laïques.
+Pour la 30e édition, l'invité d'honneur est Claude Ponti.
+La thématique de la 32e édition est « Hors-piste ».
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_S%C3%A9same</t>
+          <t>Prix_Sésame</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un comité composé de documentalistes, professeurs et organisateurs de la Fête du Livre sélectionne six romans parus dans l’année. Les livres sont lus dans les classes tout au long du premier trimestre. Un représentant par classe siège au jury qui se réunit publiquement en janvier pour décerner le prix au cours d'un long et passionné débat entre pairs. Le prix, doté à ce jour d'une enveloppe de 1000 euros pour le lauréat, est remis officiellement pendant la Fête du livre de jeunesse[4] qui a lieu généralement fin janvier à Saint-Paul-Trois-Châteaux[5].
-Les participants, des classes de quatrième de la région de la Drôme et alentour lisent des livres sélectionnés de leur niveau et votent pour leur titre préféré. Ils rencontrent également les auteurs sélectionnés, chaque année[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un comité composé de documentalistes, professeurs et organisateurs de la Fête du Livre sélectionne six romans parus dans l’année. Les livres sont lus dans les classes tout au long du premier trimestre. Un représentant par classe siège au jury qui se réunit publiquement en janvier pour décerner le prix au cours d'un long et passionné débat entre pairs. Le prix, doté à ce jour d'une enveloppe de 1000 euros pour le lauréat, est remis officiellement pendant la Fête du livre de jeunesse qui a lieu généralement fin janvier à Saint-Paul-Trois-Châteaux.
+Les participants, des classes de quatrième de la région de la Drôme et alentour lisent des livres sélectionnés de leur niveau et votent pour leur titre préféré. Ils rencontrent également les auteurs sélectionnés, chaque année.
 Pour cela, l’association du Sou Laïque, s'appuie sur des enseignants, des bibliothécaire,  et des libraires, qui présentent les œuvres littéraires contemporaines comme des outils ludiques et pédagogiques.
 </t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Prix_S%C3%A9same</t>
+          <t>Prix_Sésame</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2022 : Frère! de Jean Tévélis (Magnard Jeunesse)
 2021 : Les mots d'Hélio de Nancy Guilbert et Yaël Hassan (Magnard Jeunesse)
